--- a/Test-Data/data.xlsx
+++ b/Test-Data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BC7F4721-D9F5-4343-B4C6-0FFAC6E6402A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{513D0486-A274-4316-B373-8DAF189B29E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14300" windowHeight="2000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="2510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC1234567" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
     <t>Username or Password is invalid. Please try again.</t>
   </si>
   <si>
-    <t>gallanimanis</t>
+    <t>YzYZEX</t>
   </si>
   <si>
-    <t>YzYZEX</t>
+    <t>gallanimanish</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -376,10 +376,10 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
